--- a/data_ajuste.xlsx
+++ b/data_ajuste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9a20a830037c9ff3/Documentos/GitHub/Consultoria-Suicidio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_B9923127F1716A93400621FA5F3D017E12DFA372" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7AC7DABC-08ED-402D-B332-CC8DB86995CF}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_B9923127F1716A93400621FA5F3D017E12DFA372" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{805B135F-42C7-46D3-A8D1-8C87B05891A0}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,289 +94,289 @@
     <t>escolaridadeIgnorado</t>
   </si>
   <si>
-    <t>Nome_MicroAraranguá</t>
-  </si>
-  <si>
-    <t>Nome_MicroAssaí</t>
-  </si>
-  <si>
-    <t>Nome_MicroAstorga</t>
-  </si>
-  <si>
-    <t>Nome_MicroBlumenau</t>
-  </si>
-  <si>
-    <t>Nome_MicroCachoeira do Sul</t>
-  </si>
-  <si>
-    <t>Nome_MicroCamaquã</t>
-  </si>
-  <si>
-    <t>Nome_MicroCampanha Central</t>
-  </si>
-  <si>
-    <t>Nome_MicroCampanha Meridional</t>
-  </si>
-  <si>
-    <t>Nome_MicroCampanha Ocidental</t>
-  </si>
-  <si>
-    <t>Nome_MicroCampo Mourão</t>
-  </si>
-  <si>
-    <t>Nome_MicroCampos de Lages</t>
-  </si>
-  <si>
-    <t>Nome_MicroCanoinhas</t>
-  </si>
-  <si>
-    <t>Nome_MicroCapanema</t>
-  </si>
-  <si>
-    <t>Nome_MicroCarazinho</t>
-  </si>
-  <si>
-    <t>Nome_MicroCascavel</t>
-  </si>
-  <si>
-    <t>Nome_MicroCaxias do Sul</t>
-  </si>
-  <si>
-    <t>Nome_MicroCerro Azul</t>
-  </si>
-  <si>
-    <t>Nome_MicroCerro Largo</t>
-  </si>
-  <si>
-    <t>Nome_MicroChapecó</t>
-  </si>
-  <si>
-    <t>Nome_MicroCianorte</t>
-  </si>
-  <si>
-    <t>Nome_MicroConcórdia</t>
-  </si>
-  <si>
-    <t>Nome_MicroCornélio Procópio</t>
-  </si>
-  <si>
-    <t>Nome_MicroCriciúma</t>
-  </si>
-  <si>
-    <t>Nome_MicroCruz Alta</t>
-  </si>
-  <si>
-    <t>Nome_MicroCuritiba</t>
-  </si>
-  <si>
-    <t>Nome_MicroCuritibanos</t>
-  </si>
-  <si>
-    <t>Nome_MicroErechim</t>
-  </si>
-  <si>
-    <t>Nome_MicroFaxinal</t>
-  </si>
-  <si>
-    <t>Nome_MicroFloraí</t>
-  </si>
-  <si>
-    <t>Nome_MicroFlorianópolis</t>
-  </si>
-  <si>
-    <t>Nome_MicroFoz do Iguaçu</t>
-  </si>
-  <si>
-    <t>Nome_MicroFrancisco Beltrão</t>
-  </si>
-  <si>
-    <t>Nome_MicroFrederico Westphalen</t>
-  </si>
-  <si>
-    <t>Nome_MicroGoioerê</t>
-  </si>
-  <si>
-    <t>Nome_MicroGramado-Canela</t>
-  </si>
-  <si>
-    <t>Nome_MicroGuaporé</t>
-  </si>
-  <si>
-    <t>Nome_MicroGuarapuava</t>
-  </si>
-  <si>
-    <t>Nome_MicroIbaiti</t>
-  </si>
-  <si>
-    <t>Nome_MicroIjuí</t>
-  </si>
-  <si>
-    <t>Nome_MicroIrati</t>
-  </si>
-  <si>
-    <t>Nome_MicroItajaí</t>
-  </si>
-  <si>
-    <t>Nome_MicroItuporanga</t>
-  </si>
-  <si>
-    <t>Nome_MicroIvaiporã</t>
-  </si>
-  <si>
-    <t>Nome_MicroJacarezinho</t>
-  </si>
-  <si>
-    <t>Nome_MicroJaguarão</t>
-  </si>
-  <si>
-    <t>Nome_MicroJaguariaíva</t>
-  </si>
-  <si>
-    <t>Nome_MicroJoaçaba</t>
-  </si>
-  <si>
-    <t>Nome_MicroJoinville</t>
-  </si>
-  <si>
-    <t>Nome_MicroLajeado-Estrela</t>
-  </si>
-  <si>
-    <t>Nome_MicroLapa</t>
-  </si>
-  <si>
-    <t>Nome_MicroLitoral Lagunar</t>
-  </si>
-  <si>
-    <t>Nome_MicroLondrina</t>
-  </si>
-  <si>
-    <t>Nome_MicroMaringá</t>
-  </si>
-  <si>
-    <t>Nome_MicroMontenegro</t>
-  </si>
-  <si>
-    <t>Nome_MicroNão-Me-Toque</t>
-  </si>
-  <si>
-    <t>Nome_MicroOsório</t>
-  </si>
-  <si>
-    <t>Nome_MicroPalmas</t>
-  </si>
-  <si>
-    <t>Nome_MicroParanaguá</t>
-  </si>
-  <si>
-    <t>Nome_MicroParanavaí</t>
-  </si>
-  <si>
-    <t>Nome_MicroPasso Fundo</t>
-  </si>
-  <si>
-    <t>Nome_MicroPato Branco</t>
-  </si>
-  <si>
-    <t>Nome_MicroPelotas</t>
-  </si>
-  <si>
-    <t>Nome_MicroPitanga</t>
-  </si>
-  <si>
-    <t>Nome_MicroPonta Grossa</t>
-  </si>
-  <si>
-    <t>Nome_MicroPorecatu</t>
-  </si>
-  <si>
-    <t>Nome_MicroPorto Alegre</t>
-  </si>
-  <si>
-    <t>Nome_MicroPrudentópolis</t>
-  </si>
-  <si>
-    <t>Nome_MicroRestinga Seca</t>
-  </si>
-  <si>
-    <t>Nome_MicroRio do Sul</t>
-  </si>
-  <si>
-    <t>Nome_MicroRio Negro</t>
-  </si>
-  <si>
-    <t>Nome_MicroSananduva</t>
-  </si>
-  <si>
-    <t>Nome_MicroSanta Cruz do Sul</t>
-  </si>
-  <si>
-    <t>Nome_MicroSanta Maria</t>
-  </si>
-  <si>
-    <t>Nome_MicroSanta Rosa</t>
-  </si>
-  <si>
-    <t>Nome_MicroSantiago</t>
-  </si>
-  <si>
-    <t>Nome_MicroSanto Ângelo</t>
-  </si>
-  <si>
-    <t>Nome_MicroSão Bento do Sul</t>
-  </si>
-  <si>
-    <t>Nome_MicroSão Jerônimo</t>
-  </si>
-  <si>
-    <t>Nome_MicroSão Mateus do Sul</t>
-  </si>
-  <si>
-    <t>Nome_MicroSão Miguel do Oeste</t>
-  </si>
-  <si>
-    <t>Nome_MicroSerras de Sudeste</t>
-  </si>
-  <si>
-    <t>Nome_MicroSoledade</t>
-  </si>
-  <si>
-    <t>Nome_MicroTabuleiro</t>
-  </si>
-  <si>
-    <t>Nome_MicroTelêmaco Borba</t>
-  </si>
-  <si>
-    <t>Nome_MicroTijucas</t>
-  </si>
-  <si>
-    <t>Nome_MicroToledo</t>
-  </si>
-  <si>
-    <t>Nome_MicroTrês Passos</t>
-  </si>
-  <si>
-    <t>Nome_MicroTubarão</t>
-  </si>
-  <si>
-    <t>Nome_MicroUmuarama</t>
-  </si>
-  <si>
-    <t>Nome_MicroUnião da Vitória</t>
-  </si>
-  <si>
-    <t>Nome_MicroVacaria</t>
-  </si>
-  <si>
-    <t>Nome_MicroWenceslau Braz</t>
-  </si>
-  <si>
-    <t>Nome_MicroXanxerê</t>
-  </si>
-  <si>
     <t>mean_PPD</t>
   </si>
   <si>
     <t>log-posterior</t>
+  </si>
+  <si>
+    <t>Araranguá</t>
+  </si>
+  <si>
+    <t>Assaí</t>
+  </si>
+  <si>
+    <t>Astorga</t>
+  </si>
+  <si>
+    <t>Blumenau</t>
+  </si>
+  <si>
+    <t>Cachoeira do Sul</t>
+  </si>
+  <si>
+    <t>Camaquã</t>
+  </si>
+  <si>
+    <t>Campanha Central</t>
+  </si>
+  <si>
+    <t>Campanha Meridional</t>
+  </si>
+  <si>
+    <t>Campanha Ocidental</t>
+  </si>
+  <si>
+    <t>Campo Mourão</t>
+  </si>
+  <si>
+    <t>Campos de Lages</t>
+  </si>
+  <si>
+    <t>Canoinhas</t>
+  </si>
+  <si>
+    <t>Capanema</t>
+  </si>
+  <si>
+    <t>Carazinho</t>
+  </si>
+  <si>
+    <t>Cascavel</t>
+  </si>
+  <si>
+    <t>Caxias do Sul</t>
+  </si>
+  <si>
+    <t>Cerro Azul</t>
+  </si>
+  <si>
+    <t>Cerro Largo</t>
+  </si>
+  <si>
+    <t>Chapecó</t>
+  </si>
+  <si>
+    <t>Cianorte</t>
+  </si>
+  <si>
+    <t>Concórdia</t>
+  </si>
+  <si>
+    <t>Cornélio Procópio</t>
+  </si>
+  <si>
+    <t>Criciúma</t>
+  </si>
+  <si>
+    <t>Cruz Alta</t>
+  </si>
+  <si>
+    <t>Curitiba</t>
+  </si>
+  <si>
+    <t>Curitibanos</t>
+  </si>
+  <si>
+    <t>Erechim</t>
+  </si>
+  <si>
+    <t>Faxinal</t>
+  </si>
+  <si>
+    <t>Floraí</t>
+  </si>
+  <si>
+    <t>Florianópolis</t>
+  </si>
+  <si>
+    <t>Foz do Iguaçu</t>
+  </si>
+  <si>
+    <t>Francisco Beltrão</t>
+  </si>
+  <si>
+    <t>Frederico Westphalen</t>
+  </si>
+  <si>
+    <t>Goioerê</t>
+  </si>
+  <si>
+    <t>Gramado-Canela</t>
+  </si>
+  <si>
+    <t>Guaporé</t>
+  </si>
+  <si>
+    <t>Guarapuava</t>
+  </si>
+  <si>
+    <t>Ibaiti</t>
+  </si>
+  <si>
+    <t>Ijuí</t>
+  </si>
+  <si>
+    <t>Irati</t>
+  </si>
+  <si>
+    <t>Itajaí</t>
+  </si>
+  <si>
+    <t>Ituporanga</t>
+  </si>
+  <si>
+    <t>Ivaiporã</t>
+  </si>
+  <si>
+    <t>Jacarezinho</t>
+  </si>
+  <si>
+    <t>Jaguarão</t>
+  </si>
+  <si>
+    <t>Jaguariaíva</t>
+  </si>
+  <si>
+    <t>Joaçaba</t>
+  </si>
+  <si>
+    <t>Joinville</t>
+  </si>
+  <si>
+    <t>Lajeado-Estrela</t>
+  </si>
+  <si>
+    <t>Lapa</t>
+  </si>
+  <si>
+    <t>Litoral Lagunar</t>
+  </si>
+  <si>
+    <t>Londrina</t>
+  </si>
+  <si>
+    <t>Maringá</t>
+  </si>
+  <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
+    <t>Não-Me-Toque</t>
+  </si>
+  <si>
+    <t>Osório</t>
+  </si>
+  <si>
+    <t>Palmas</t>
+  </si>
+  <si>
+    <t>Paranaguá</t>
+  </si>
+  <si>
+    <t>Paranavaí</t>
+  </si>
+  <si>
+    <t>Passo Fundo</t>
+  </si>
+  <si>
+    <t>Pato Branco</t>
+  </si>
+  <si>
+    <t>Pelotas</t>
+  </si>
+  <si>
+    <t>Pitanga</t>
+  </si>
+  <si>
+    <t>Ponta Grossa</t>
+  </si>
+  <si>
+    <t>Porecatu</t>
+  </si>
+  <si>
+    <t>Porto Alegre</t>
+  </si>
+  <si>
+    <t>Prudentópolis</t>
+  </si>
+  <si>
+    <t>Restinga Seca</t>
+  </si>
+  <si>
+    <t>Rio do Sul</t>
+  </si>
+  <si>
+    <t>Rio Negro</t>
+  </si>
+  <si>
+    <t>Sananduva</t>
+  </si>
+  <si>
+    <t>Santa Cruz do Sul</t>
+  </si>
+  <si>
+    <t>Santa Maria</t>
+  </si>
+  <si>
+    <t>Santa Rosa</t>
+  </si>
+  <si>
+    <t>Santiago</t>
+  </si>
+  <si>
+    <t>Santo Ângelo</t>
+  </si>
+  <si>
+    <t>São Bento do Sul</t>
+  </si>
+  <si>
+    <t>São Jerônimo</t>
+  </si>
+  <si>
+    <t>São Mateus do Sul</t>
+  </si>
+  <si>
+    <t>São Miguel do Oeste</t>
+  </si>
+  <si>
+    <t>Serras de Sudeste</t>
+  </si>
+  <si>
+    <t>Soledade</t>
+  </si>
+  <si>
+    <t>Tabuleiro</t>
+  </si>
+  <si>
+    <t>Telêmaco Borba</t>
+  </si>
+  <si>
+    <t>Tijucas</t>
+  </si>
+  <si>
+    <t>Toledo</t>
+  </si>
+  <si>
+    <t>Três Passos</t>
+  </si>
+  <si>
+    <t>Tubarão</t>
+  </si>
+  <si>
+    <t>Umuarama</t>
+  </si>
+  <si>
+    <t>União da Vitória</t>
+  </si>
+  <si>
+    <t>Vacaria</t>
+  </si>
+  <si>
+    <t>Wenceslau Braz</t>
+  </si>
+  <si>
+    <t>Xanxerê</t>
   </si>
 </sst>
 </file>
@@ -1018,7 +1018,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22" s="1">
         <v>-0.34</v>
@@ -1032,7 +1032,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23" s="1">
         <v>-0.6</v>
@@ -1046,7 +1046,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24" s="1">
         <v>-0.13</v>
@@ -1060,7 +1060,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25" s="1">
         <v>-0.61</v>
@@ -1074,7 +1074,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26" s="1">
         <v>0.22</v>
@@ -1088,7 +1088,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27" s="1">
         <v>0.45</v>
@@ -1102,7 +1102,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28" s="1">
         <v>1.03</v>
@@ -1116,7 +1116,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29" s="1">
         <v>1.23</v>
@@ -1130,7 +1130,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30" s="1">
         <v>1.18</v>
@@ -1144,7 +1144,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31" s="1">
         <v>-0.28999999999999998</v>
@@ -1158,7 +1158,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32" s="1">
         <v>0.27</v>
@@ -1172,7 +1172,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33" s="1">
         <v>-0.38</v>
@@ -1186,7 +1186,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34" s="1">
         <v>-0.49</v>
@@ -1200,7 +1200,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35" s="1">
         <v>0.17</v>
@@ -1214,7 +1214,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36" s="1">
         <v>0.48</v>
@@ -1228,7 +1228,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37" s="1">
         <v>0.56000000000000005</v>
@@ -1242,7 +1242,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38" s="1">
         <v>-113.68</v>
@@ -1256,7 +1256,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39" s="1">
         <v>0.3</v>
@@ -1270,7 +1270,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40" s="1">
         <v>-0.53</v>
@@ -1284,7 +1284,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41" s="1">
         <v>-0.25</v>
@@ -1298,7 +1298,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42" s="1">
         <v>-0.82</v>
@@ -1312,7 +1312,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43" s="1">
         <v>-0.17</v>
@@ -1326,7 +1326,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44" s="1">
         <v>-0.41</v>
@@ -1340,7 +1340,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45" s="1">
         <v>0.72</v>
@@ -1354,7 +1354,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46" s="1">
         <v>-0.06</v>
@@ -1368,7 +1368,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47" s="1">
         <v>0.17</v>
@@ -1382,7 +1382,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48" s="1">
         <v>0.04</v>
@@ -1396,7 +1396,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49" s="1">
         <v>-0.73</v>
@@ -1410,7 +1410,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50" s="1">
         <v>0.47</v>
@@ -1424,7 +1424,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51" s="1">
         <v>-0.44</v>
@@ -1438,7 +1438,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52" s="1">
         <v>-0.12</v>
@@ -1452,7 +1452,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53" s="1">
         <v>0.02</v>
@@ -1466,7 +1466,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54" s="1">
         <v>0.06</v>
@@ -1480,7 +1480,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55" s="1">
         <v>-0.66</v>
@@ -1494,7 +1494,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56" s="1">
         <v>-0.03</v>
@@ -1508,7 +1508,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57" s="1">
         <v>-0.1</v>
@@ -1522,7 +1522,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58" s="1">
         <v>0.31</v>
@@ -1536,7 +1536,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59" s="1">
         <v>-7.0000000000000007E-2</v>
@@ -1550,7 +1550,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60" s="1">
         <v>0.38</v>
@@ -1564,7 +1564,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61" s="1">
         <v>0.24</v>
@@ -1578,7 +1578,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62" s="1">
         <v>-0.28999999999999998</v>
@@ -1592,7 +1592,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63" s="1">
         <v>-0.82</v>
@@ -1606,7 +1606,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64" s="1">
         <v>-0.46</v>
@@ -1620,7 +1620,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65" s="1">
         <v>0.21</v>
@@ -1634,7 +1634,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66" s="1">
         <v>1.08</v>
@@ -1648,7 +1648,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67" s="1">
         <v>-0.17</v>
@@ -1662,7 +1662,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68" s="1">
         <v>0.34</v>
@@ -1676,7 +1676,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69" s="1">
         <v>-0.59</v>
@@ -1690,7 +1690,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70" s="1">
         <v>-0.4</v>
@@ -1704,7 +1704,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71" s="1">
         <v>-0.26</v>
@@ -1718,7 +1718,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72" s="1">
         <v>0.43</v>
@@ -1732,7 +1732,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73" s="1">
         <v>-0.19</v>
@@ -1746,7 +1746,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74" s="1">
         <v>-0.41</v>
@@ -1760,7 +1760,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75" s="1">
         <v>-0.23</v>
@@ -1774,7 +1774,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76" s="1">
         <v>0.47</v>
@@ -1788,7 +1788,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77" s="1">
         <v>0.12</v>
@@ -1802,7 +1802,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78" s="1">
         <v>0.12</v>
@@ -1816,7 +1816,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79" s="1">
         <v>-0.03</v>
@@ -1830,7 +1830,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80" s="1">
         <v>0.16</v>
@@ -1844,7 +1844,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81" s="1">
         <v>0.59</v>
@@ -1858,7 +1858,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82" s="1">
         <v>0.15</v>
@@ -1872,7 +1872,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83" s="1">
         <v>0.51</v>
@@ -1886,7 +1886,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84" s="1">
         <v>-0.38</v>
@@ -1900,7 +1900,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85" s="1">
         <v>-0.11</v>
@@ -1914,7 +1914,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86" s="1">
         <v>-0.96</v>
@@ -1928,7 +1928,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87" s="1">
         <v>0.41</v>
@@ -1942,7 +1942,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88" s="1">
         <v>-0.04</v>
@@ -1956,7 +1956,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89" s="1">
         <v>-0.75</v>
@@ -1970,7 +1970,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90" s="1">
         <v>-0.03</v>
@@ -1984,7 +1984,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91" s="1">
         <v>-0.65</v>
@@ -1998,7 +1998,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92" s="1">
         <v>0.23</v>
@@ -2012,7 +2012,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93" s="1">
         <v>-0.01</v>
@@ -2026,7 +2026,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94" s="1">
         <v>0.67</v>
@@ -2040,7 +2040,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95" s="1">
         <v>-0.23</v>
@@ -2054,7 +2054,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96" s="1">
         <v>0.76</v>
@@ -2068,7 +2068,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97" s="1">
         <v>0.53</v>
@@ -2082,7 +2082,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98" s="1">
         <v>-0.95</v>
@@ -2096,7 +2096,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99" s="1">
         <v>7.0000000000000007E-2</v>
@@ -2110,7 +2110,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100" s="1">
         <v>-0.82</v>
@@ -2124,7 +2124,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101" s="1">
         <v>-0.18</v>
@@ -2138,7 +2138,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102" s="1">
         <v>0.51</v>
@@ -2152,7 +2152,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103" s="1">
         <v>0.52</v>
@@ -2166,7 +2166,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104" s="1">
         <v>-0.13</v>
@@ -2180,7 +2180,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B105" s="1">
         <v>-0.02</v>
@@ -2194,7 +2194,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B106" s="1">
         <v>-2.16</v>
@@ -2208,7 +2208,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B107" s="1">
         <v>-0.26</v>
@@ -2222,7 +2222,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B108" s="1">
         <v>-0.45</v>
@@ -2236,7 +2236,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B109" s="1">
         <v>-0.49</v>
@@ -2250,7 +2250,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B110" s="1">
         <v>-0.49</v>
@@ -2264,7 +2264,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B111" s="1">
         <v>-0.75</v>
@@ -2278,7 +2278,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B112" s="1">
         <v>0.69</v>
@@ -2292,7 +2292,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B113" s="1">
         <v>-0.84</v>
@@ -2306,7 +2306,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B114" s="1">
         <v>-0.21</v>
@@ -2320,7 +2320,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>117</v>
+        <v>24</v>
       </c>
       <c r="B115" s="1">
         <v>0.18</v>
@@ -2334,7 +2334,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>118</v>
+        <v>25</v>
       </c>
       <c r="B116" s="1">
         <v>-9939.8799999999992</v>
